--- a/biology/Zoologie/Dicranopalpus/Dicranopalpus.xlsx
+++ b/biology/Zoologie/Dicranopalpus/Dicranopalpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicranopalpus est un genre d'opilions eupnois de la famille des Phalangiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe et en Afrique du Nord.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (05/05/2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (05/05/2021) :
 Dicranopalpus bolivari (Dresco, 1949)
 Dicranopalpus brevipes Marcellino, 1970
 Dicranopalpus cantabricus Dresco, 1953
@@ -584,7 +600,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre se réfère à la forme des palpes, au moins chez la première espèce décrite, Dicranopalpus gasteinensis (mais on la retrouve aussi par exemple chez Dicranopalpus ramosus) : le nom se compose de di (deux), cranium (tête) et palpus (palpe).
 </t>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Doleschall, 1852 : « Systematisches Verzeichniss der im Kaiserthum Österreich vorkommenden Spinnen. » Sitzungsberichte der Kaiserlichen Akademie der Wissenschaften. Mathematisch-Naturwissenschaftliche Classe, vol. 9, p. 622-651 (texte intégral).</t>
         </is>
